--- a/data/stock_data/S&P500_data.xlsx
+++ b/data/stock_data/S&P500_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Documents/code/Research-Project/data/stock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC83DBD-2203-FD42-925C-37446D5EF26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2A0039-01AB-0848-9E00-4483DAE5517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37440" yWindow="-12020" windowWidth="28480" windowHeight="16440" xr2:uid="{E8AD4466-DECB-074F-90C9-6F2E91701384}"/>
   </bookViews>
@@ -53,13 +53,13 @@
     <t>Close*</t>
   </si>
   <si>
-    <t>Up / Down</t>
-  </si>
-  <si>
     <t>Avg. Sentiment Score</t>
   </si>
   <si>
     <t>Avg. Stock Price</t>
+  </si>
+  <si>
+    <t>Tragectory</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,13 +596,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">

--- a/data/stock_data/S&P500_data.xlsx
+++ b/data/stock_data/S&P500_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Documents/code/Research-Project/data/stock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2A0039-01AB-0848-9E00-4483DAE5517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838EB1CF-DAB7-6743-A83A-8B6399508B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37440" yWindow="-12020" windowWidth="28480" windowHeight="16440" xr2:uid="{E8AD4466-DECB-074F-90C9-6F2E91701384}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J3"/>
+      <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
         <v>4396.4399999999996</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F22" si="0" xml:space="preserve"> (B2+C2+D2+E2)/4</f>
+        <f xml:space="preserve"> (B2+C2+D2+E2)/4</f>
         <v>4385.4349999999995</v>
       </c>
       <c r="G2">
@@ -649,7 +649,7 @@
         <v>4450.38</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B3+C3+D3+E3)/4</f>
         <v>4438.4349999999995</v>
       </c>
       <c r="G3">
@@ -677,7 +677,7 @@
         <v>4455.59</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B4+C4+D4+E4)/4</f>
         <v>4451.2049999999999</v>
       </c>
       <c r="G4">
@@ -705,7 +705,7 @@
         <v>4446.82</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B5+C5+D5+E5)/4</f>
         <v>4444.8824999999997</v>
       </c>
       <c r="G5">
@@ -733,7 +733,7 @@
         <v>4411.59</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B6+C6+D6+E6)/4</f>
         <v>4410.47</v>
       </c>
       <c r="G6">
@@ -761,7 +761,7 @@
         <v>4398.95</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B7+C7+D7+E7)/4</f>
         <v>4410.32</v>
       </c>
       <c r="G7">
@@ -789,7 +789,7 @@
         <v>4409.53</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B8+C8+D8+E8)/4</f>
         <v>4401.57</v>
       </c>
       <c r="G8">
@@ -817,7 +817,7 @@
         <v>4439.26</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B9+C9+D9+E9)/4</f>
         <v>4426.7275000000009</v>
       </c>
       <c r="G9">
@@ -845,7 +845,7 @@
         <v>4472.16</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B10+C10+D10+E10)/4</f>
         <v>4472.8549999999996</v>
       </c>
       <c r="G10">
@@ -873,7 +873,7 @@
         <v>4510.04</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B11+C11+D11+E11)/4</f>
         <v>4502.0700000000006</v>
       </c>
       <c r="G11">
@@ -901,7 +901,7 @@
         <v>4505.42</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B12+C12+D12+E12)/4</f>
         <v>4511.8374999999996</v>
       </c>
       <c r="G12">
@@ -929,7 +929,7 @@
         <v>4522.79</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B13+C13+D13+E13)/4</f>
         <v>4517.3499999999995</v>
       </c>
       <c r="G13">
@@ -957,7 +957,7 @@
         <v>4554.9799999999996</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B14+C14+D14+E14)/4</f>
         <v>4538.4125000000004</v>
       </c>
       <c r="G14">
@@ -985,7 +985,7 @@
         <v>4565.72</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B15+C15+D15+E15)/4</f>
         <v>4566.375</v>
       </c>
       <c r="G15">
@@ -1013,7 +1013,7 @@
         <v>4534.87</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B16+C16+D16+E16)/4</f>
         <v>4545.3874999999998</v>
       </c>
       <c r="G16">
@@ -1041,7 +1041,7 @@
         <v>4536.34</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B17+C17+D17+E17)/4</f>
         <v>4544.3225000000002</v>
       </c>
       <c r="G17">
@@ -1069,7 +1069,7 @@
         <v>4554.6400000000003</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B18+C18+D18+E18)/4</f>
         <v>4550.6824999999999</v>
       </c>
       <c r="G18">
@@ -1097,7 +1097,7 @@
         <v>4567.46</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B19+C19+D19+E19)/4</f>
         <v>4563.9224999999997</v>
       </c>
       <c r="G19">
@@ -1125,7 +1125,7 @@
         <v>4566.75</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B20+C20+D20+E20)/4</f>
         <v>4563.9400000000005</v>
       </c>
       <c r="G20">
@@ -1153,7 +1153,7 @@
         <v>4537.41</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B21+C21+D21+E21)/4</f>
         <v>4567.8249999999998</v>
       </c>
       <c r="G21">
@@ -1181,14 +1181,14 @@
         <v>4582.2299999999996</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (B22+C22+D22+E22)/4</f>
         <v>4575.5375000000004</v>
       </c>
       <c r="G22">
         <v>0.57499999999999996</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ref="H22:H23" si="1" xml:space="preserve"> IF(F21&lt;F22,1,0)</f>
+        <f xml:space="preserve"> IF(F21&lt;F22,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(F22&lt;F23,1,0)</f>
         <v>0</v>
       </c>
     </row>

--- a/data/stock_data/S&P500_data.xlsx
+++ b/data/stock_data/S&P500_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Documents/code/Research-Project/data/stock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838EB1CF-DAB7-6743-A83A-8B6399508B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C47D04-0454-F740-AA61-39C65C9C5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="-12020" windowWidth="28480" windowHeight="16440" xr2:uid="{E8AD4466-DECB-074F-90C9-6F2E91701384}"/>
+    <workbookView xWindow="28800" yWindow="-13460" windowWidth="19040" windowHeight="21600" xr2:uid="{E8AD4466-DECB-074F-90C9-6F2E91701384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Avg. Sentiment Score</t>
-  </si>
-  <si>
-    <t>Avg. Stock Price</t>
   </si>
   <si>
     <t>Tragectory</t>
@@ -101,17 +98,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -129,6 +125,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF232A31"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -243,6 +259,24 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FF232A31"/>
+        <name val="Helvetica Neue"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -257,14 +291,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F243026-E0D2-0348-9353-4023474A6A66}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
-  <autoFilter ref="A1:E23" xr:uid="{7F243026-E0D2-0348-9353-4023474A6A66}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E9EE4E6-BA56-0240-B193-72968FD91CFC}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00F09574-D653-CF40-A045-833B8056D540}" name="Open" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C475097E-B062-F346-B4AD-B0DB642B1694}" name="High" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{799F9432-DFAE-E649-B6FB-5EE6E86414E1}" name="Low" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E03DBB78-A65D-F841-9D5E-F5E693353368}" name="Close*" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F243026-E0D2-0348-9353-4023474A6A66}" name="Table1" displayName="Table1" ref="A1:G23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G23" xr:uid="{7F243026-E0D2-0348-9353-4023474A6A66}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{1E9EE4E6-BA56-0240-B193-72968FD91CFC}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00F09574-D653-CF40-A045-833B8056D540}" name="Open" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C475097E-B062-F346-B4AD-B0DB642B1694}" name="High" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{799F9432-DFAE-E649-B6FB-5EE6E86414E1}" name="Low" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E03DBB78-A65D-F841-9D5E-F5E693353368}" name="Close*" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{16F150D7-C3DB-164E-A305-790F140C8983}" name="Avg. Sentiment Score" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E448707E-22CE-3B43-9550-7684E015C432}" name="Tragectory" dataDxfId="0">
+      <calculatedColumnFormula>IF(E2&gt;E1,1,0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F07071-8428-E341-8AFC-C7ADFFEF19BC}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +617,7 @@
     <col min="8" max="8" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,16 +634,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45106</v>
       </c>
@@ -622,17 +657,13 @@
         <v>4396.4399999999996</v>
       </c>
       <c r="F2" s="3">
-        <f xml:space="preserve"> (B2+C2+D2+E2)/4</f>
-        <v>4385.4349999999995</v>
-      </c>
-      <c r="G2">
         <v>0.59399999999999997</v>
       </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45107</v>
       </c>
@@ -649,18 +680,14 @@
         <v>4450.38</v>
       </c>
       <c r="F3" s="3">
-        <f xml:space="preserve"> (B3+C3+D3+E3)/4</f>
-        <v>4438.4349999999995</v>
-      </c>
-      <c r="G3">
         <v>0.61299999999999999</v>
       </c>
-      <c r="H3" s="4">
-        <f xml:space="preserve"> IF(F2&lt;F3,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <f>IF(E3&gt;E2,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45110</v>
       </c>
@@ -677,18 +704,14 @@
         <v>4455.59</v>
       </c>
       <c r="F4" s="3">
-        <f xml:space="preserve"> (B4+C4+D4+E4)/4</f>
-        <v>4451.2049999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.501</v>
-      </c>
-      <c r="H4" s="4">
-        <f xml:space="preserve"> IF(F3&lt;F4,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0.51</v>
+      </c>
+      <c r="G4" s="3">
+        <f>IF(E4&gt;E3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45112</v>
       </c>
@@ -705,18 +728,14 @@
         <v>4446.82</v>
       </c>
       <c r="F5" s="3">
-        <f xml:space="preserve"> (B5+C5+D5+E5)/4</f>
-        <v>4444.8824999999997</v>
-      </c>
-      <c r="G5">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H5" s="4">
-        <f xml:space="preserve"> IF(F4&lt;F5,1,0)</f>
+      <c r="G5" s="3">
+        <f>IF(E5&gt;E4,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45113</v>
       </c>
@@ -733,18 +752,14 @@
         <v>4411.59</v>
       </c>
       <c r="F6" s="3">
-        <f xml:space="preserve"> (B6+C6+D6+E6)/4</f>
-        <v>4410.47</v>
-      </c>
-      <c r="G6">
         <v>0.48159999999999997</v>
       </c>
-      <c r="H6" s="4">
-        <f xml:space="preserve"> IF(F5&lt;F6,1,0)</f>
+      <c r="G6" s="3">
+        <f>IF(E6&gt;E5,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45114</v>
       </c>
@@ -761,18 +776,14 @@
         <v>4398.95</v>
       </c>
       <c r="F7" s="3">
-        <f xml:space="preserve"> (B7+C7+D7+E7)/4</f>
-        <v>4410.32</v>
-      </c>
-      <c r="G7">
         <v>0.45</v>
       </c>
-      <c r="H7" s="4">
-        <f xml:space="preserve"> IF(F6&lt;F7,1,0)</f>
+      <c r="G7" s="3">
+        <f>IF(E7&gt;E6,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45117</v>
       </c>
@@ -789,18 +800,14 @@
         <v>4409.53</v>
       </c>
       <c r="F8" s="3">
-        <f xml:space="preserve"> (B8+C8+D8+E8)/4</f>
-        <v>4401.57</v>
-      </c>
-      <c r="G8">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="H8" s="4">
-        <f xml:space="preserve"> IF(F7&lt;F8,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0.53</v>
+      </c>
+      <c r="G8" s="3">
+        <f>IF(E8&gt;E7,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45118</v>
       </c>
@@ -817,18 +824,14 @@
         <v>4439.26</v>
       </c>
       <c r="F9" s="3">
-        <f xml:space="preserve"> (B9+C9+D9+E9)/4</f>
-        <v>4426.7275000000009</v>
-      </c>
-      <c r="G9">
         <v>0.48</v>
       </c>
-      <c r="H9" s="4">
-        <f xml:space="preserve"> IF(F8&lt;F9,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <f>IF(E9&gt;E8,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45119</v>
       </c>
@@ -845,18 +848,14 @@
         <v>4472.16</v>
       </c>
       <c r="F10" s="3">
-        <f xml:space="preserve"> (B10+C10+D10+E10)/4</f>
-        <v>4472.8549999999996</v>
-      </c>
-      <c r="G10">
         <v>0.52200000000000002</v>
       </c>
-      <c r="H10" s="4">
-        <f xml:space="preserve"> IF(F9&lt;F10,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G10" s="3">
+        <f>IF(E10&gt;E9,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45120</v>
       </c>
@@ -873,18 +872,14 @@
         <v>4510.04</v>
       </c>
       <c r="F11" s="3">
-        <f xml:space="preserve"> (B11+C11+D11+E11)/4</f>
-        <v>4502.0700000000006</v>
-      </c>
-      <c r="G11">
         <v>0.71</v>
       </c>
-      <c r="H11" s="4">
-        <f xml:space="preserve"> IF(F10&lt;F11,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G11" s="3">
+        <f>IF(E11&gt;E10,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45121</v>
       </c>
@@ -901,18 +896,14 @@
         <v>4505.42</v>
       </c>
       <c r="F12" s="3">
-        <f xml:space="preserve"> (B12+C12+D12+E12)/4</f>
-        <v>4511.8374999999996</v>
-      </c>
-      <c r="G12">
         <v>0.65800000000000003</v>
       </c>
-      <c r="H12" s="4">
-        <f xml:space="preserve"> IF(F11&lt;F12,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <f>IF(E12&gt;E11,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45124</v>
       </c>
@@ -929,18 +920,14 @@
         <v>4522.79</v>
       </c>
       <c r="F13" s="3">
-        <f xml:space="preserve"> (B13+C13+D13+E13)/4</f>
-        <v>4517.3499999999995</v>
-      </c>
-      <c r="G13">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="H13" s="4">
-        <f xml:space="preserve"> IF(F12&lt;F13,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0.44</v>
+      </c>
+      <c r="G13" s="3">
+        <f>IF(E13&gt;E12,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45125</v>
       </c>
@@ -957,18 +944,14 @@
         <v>4554.9799999999996</v>
       </c>
       <c r="F14" s="3">
-        <f xml:space="preserve"> (B14+C14+D14+E14)/4</f>
-        <v>4538.4125000000004</v>
-      </c>
-      <c r="G14">
         <v>0.56799999999999995</v>
       </c>
-      <c r="H14" s="4">
-        <f xml:space="preserve"> IF(F13&lt;F14,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G14" s="3">
+        <f>IF(E14&gt;E13,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45126</v>
       </c>
@@ -985,18 +968,14 @@
         <v>4565.72</v>
       </c>
       <c r="F15" s="3">
-        <f xml:space="preserve"> (B15+C15+D15+E15)/4</f>
-        <v>4566.375</v>
-      </c>
-      <c r="G15">
         <v>0.59099999999999997</v>
       </c>
-      <c r="H15" s="4">
-        <f xml:space="preserve"> IF(F14&lt;F15,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <f>IF(E15&gt;E14,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45127</v>
       </c>
@@ -1013,18 +992,14 @@
         <v>4534.87</v>
       </c>
       <c r="F16" s="3">
-        <f xml:space="preserve"> (B16+C16+D16+E16)/4</f>
-        <v>4545.3874999999998</v>
-      </c>
-      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H16" s="4">
-        <f xml:space="preserve"> IF(F15&lt;F16,1,0)</f>
+      <c r="G16" s="3">
+        <f>IF(E16&gt;E15,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45128</v>
       </c>
@@ -1041,18 +1016,14 @@
         <v>4536.34</v>
       </c>
       <c r="F17" s="3">
-        <f xml:space="preserve"> (B17+C17+D17+E17)/4</f>
-        <v>4544.3225000000002</v>
-      </c>
-      <c r="G17">
         <v>0.55300000000000005</v>
       </c>
-      <c r="H17" s="4">
-        <f xml:space="preserve"> IF(F16&lt;F17,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G17" s="3">
+        <f>IF(E17&gt;E16,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45131</v>
       </c>
@@ -1069,18 +1040,14 @@
         <v>4554.6400000000003</v>
       </c>
       <c r="F18" s="3">
-        <f xml:space="preserve"> (B18+C18+D18+E18)/4</f>
-        <v>4550.6824999999999</v>
-      </c>
-      <c r="G18">
-        <v>0.63</v>
-      </c>
-      <c r="H18" s="4">
-        <f xml:space="preserve"> IF(F17&lt;F18,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>0.59</v>
+      </c>
+      <c r="G18" s="3">
+        <f>IF(E18&gt;E17,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45132</v>
       </c>
@@ -1097,18 +1064,14 @@
         <v>4567.46</v>
       </c>
       <c r="F19" s="3">
-        <f xml:space="preserve"> (B19+C19+D19+E19)/4</f>
-        <v>4563.9224999999997</v>
-      </c>
-      <c r="G19">
         <v>0.53</v>
       </c>
-      <c r="H19" s="4">
-        <f xml:space="preserve"> IF(F18&lt;F19,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G19" s="3">
+        <f>IF(E19&gt;E18,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45133</v>
       </c>
@@ -1125,18 +1088,14 @@
         <v>4566.75</v>
       </c>
       <c r="F20" s="3">
-        <f xml:space="preserve"> (B20+C20+D20+E20)/4</f>
-        <v>4563.9400000000005</v>
-      </c>
-      <c r="G20">
         <v>0.38750000000000001</v>
       </c>
-      <c r="H20" s="4">
-        <f xml:space="preserve"> IF(F19&lt;F20,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <f>IF(E20&gt;E19,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45134</v>
       </c>
@@ -1153,18 +1112,14 @@
         <v>4537.41</v>
       </c>
       <c r="F21" s="3">
-        <f xml:space="preserve"> (B21+C21+D21+E21)/4</f>
-        <v>4567.8249999999998</v>
-      </c>
-      <c r="G21">
         <v>0.71699999999999997</v>
       </c>
-      <c r="H21" s="4">
-        <f xml:space="preserve"> IF(F20&lt;F21,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G21" s="3">
+        <f>IF(E21&gt;E20,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45135</v>
       </c>
@@ -1181,18 +1136,14 @@
         <v>4582.2299999999996</v>
       </c>
       <c r="F22" s="3">
-        <f xml:space="preserve"> (B22+C22+D22+E22)/4</f>
-        <v>4575.5375000000004</v>
-      </c>
-      <c r="G22">
         <v>0.57499999999999996</v>
       </c>
-      <c r="H22" s="4">
-        <f xml:space="preserve"> IF(F21&lt;F22,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="G22" s="3">
+        <f>IF(E22&gt;E21,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45136</v>
       </c>
@@ -1209,14 +1160,10 @@
         <v>4537.41</v>
       </c>
       <c r="F23" s="3">
-        <f xml:space="preserve"> (B23+C23+D23+E23)/4</f>
-        <v>4567.8249999999998</v>
-      </c>
-      <c r="G23">
         <v>0.29499999999999998</v>
       </c>
-      <c r="H23" s="4">
-        <f xml:space="preserve"> IF(F22&lt;F23,1,0)</f>
+      <c r="G23" s="3">
+        <f>IF(E23&gt;E22,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1224,7 +1171,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
     <sortCondition ref="A2:A23"/>
   </sortState>
-  <conditionalFormatting sqref="H25:H1048576 H1:H23">
+  <conditionalFormatting sqref="F1:F23 G25:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G23 H25:H1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1236,32 +1195,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G1048576 G1:G23">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F22 F25:F1048576">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="F25:F1048576">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/data/stock_data/S&P500_data.xlsx
+++ b/data/stock_data/S&P500_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Documents/code/Research-Project/data/stock_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C47D04-0454-F740-AA61-39C65C9C5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EA162E-6947-BD42-93C7-D72697B5D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-13460" windowWidth="19040" windowHeight="21600" xr2:uid="{E8AD4466-DECB-074F-90C9-6F2E91701384}"/>
+    <workbookView xWindow="480" yWindow="1100" windowWidth="24460" windowHeight="16460" xr2:uid="{E8AD4466-DECB-074F-90C9-6F2E91701384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Avg. Sentiment Score</t>
   </si>
   <si>
-    <t>Tragectory</t>
+    <t>Trajectory</t>
   </si>
 </sst>
 </file>
@@ -300,7 +300,7 @@
     <tableColumn id="4" xr3:uid="{799F9432-DFAE-E649-B6FB-5EE6E86414E1}" name="Low" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{E03DBB78-A65D-F841-9D5E-F5E693353368}" name="Close*" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{16F150D7-C3DB-164E-A305-790F140C8983}" name="Avg. Sentiment Score" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{E448707E-22CE-3B43-9550-7684E015C432}" name="Tragectory" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{E448707E-22CE-3B43-9550-7684E015C432}" name="Trajectory" dataDxfId="0">
       <calculatedColumnFormula>IF(E2&gt;E1,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F07071-8428-E341-8AFC-C7ADFFEF19BC}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="193" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="G23" sqref="B1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,7 +683,7 @@
         <v>0.61299999999999999</v>
       </c>
       <c r="G3" s="3">
-        <f>IF(E3&gt;E2,1,0)</f>
+        <f t="shared" ref="G3:G23" si="0">IF(E3&gt;E2,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -707,7 +707,7 @@
         <v>0.51</v>
       </c>
       <c r="G4" s="3">
-        <f>IF(E4&gt;E3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="G5" s="3">
-        <f>IF(E5&gt;E4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>0.48159999999999997</v>
       </c>
       <c r="G6" s="3">
-        <f>IF(E6&gt;E5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>0.45</v>
       </c>
       <c r="G7" s="3">
-        <f>IF(E7&gt;E6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>0.53</v>
       </c>
       <c r="G8" s="3">
-        <f>IF(E8&gt;E7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -827,7 +827,7 @@
         <v>0.48</v>
       </c>
       <c r="G9" s="3">
-        <f>IF(E9&gt;E8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="G10" s="3">
-        <f>IF(E10&gt;E9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>0.71</v>
       </c>
       <c r="G11" s="3">
-        <f>IF(E11&gt;E10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="G12" s="3">
-        <f>IF(E12&gt;E11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>0.44</v>
       </c>
       <c r="G13" s="3">
-        <f>IF(E13&gt;E12,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -947,7 +947,7 @@
         <v>0.56799999999999995</v>
       </c>
       <c r="G14" s="3">
-        <f>IF(E14&gt;E13,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         <v>0.59099999999999997</v>
       </c>
       <c r="G15" s="3">
-        <f>IF(E15&gt;E14,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -995,7 +995,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="3">
-        <f>IF(E16&gt;E15,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="G17" s="3">
-        <f>IF(E17&gt;E16,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
         <v>0.59</v>
       </c>
       <c r="G18" s="3">
-        <f>IF(E18&gt;E17,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         <v>0.53</v>
       </c>
       <c r="G19" s="3">
-        <f>IF(E19&gt;E18,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
         <v>0.38750000000000001</v>
       </c>
       <c r="G20" s="3">
-        <f>IF(E20&gt;E19,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
         <v>0.71699999999999997</v>
       </c>
       <c r="G21" s="3">
-        <f>IF(E21&gt;E20,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="G22" s="3">
-        <f>IF(E22&gt;E21,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="G23" s="3">
-        <f>IF(E23&gt;E22,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1173,6 +1173,18 @@
   </sortState>
   <conditionalFormatting sqref="F1:F23 G25:G1048576">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:F1048576">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1195,18 +1207,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F1048576">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
